--- a/Anvio/COGAnalysis/Stats_TransposasesRetron.xlsx
+++ b/Anvio/COGAnalysis/Stats_TransposasesRetron.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabelfe/Desktop/GitHub/DpiGME_Manuscript/Anvio/COGAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50E8EF39-EEB1-D24E-A639-12C3569AB41C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB87454-92CC-7242-A431-926C6545A37A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42320" yWindow="-1620" windowWidth="27640" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="46720" yWindow="1560" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats_Transposases" sheetId="1" r:id="rId1"/>
-    <sheet name="Stats_Retron" sheetId="2" r:id="rId2"/>
+    <sheet name="Stats_Retron" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="63">
   <si>
     <t>GC_00000003</t>
   </si>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1049,7 +1049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4019,8 +4019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B40CF6-B7FC-9041-AED0-45A332132292}">
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4255,7 +4255,71 @@
         <v>8</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>